--- a/outputs-r202/test-g__UBA1067.xlsx
+++ b/outputs-r202/test-g__UBA1067.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Row</t>
   </si>
@@ -136,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,14 +146,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,102 +204,102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -390,190 +394,190 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="C3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="D3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="E3">
-        <v>1.9336289906495456e-05</v>
+        <v>0.00076536057612174653</v>
       </c>
       <c r="F3">
-        <v>0.0053441151238187348</v>
+        <v>4.8251401621609647e-09</v>
       </c>
       <c r="G3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="H3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="I3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="J3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="K3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="L3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="M3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="N3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="O3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.7276985925088575e-12</v>
       </c>
       <c r="P3">
-        <v>0.99463653400347241</v>
+        <v>0.99923463455800554</v>
       </c>
       <c r="Q3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="R3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="S3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="T3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="U3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="V3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="W3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="X3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="Y3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="AB3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="AC3">
-        <v>2.2201634306822519e-14</v>
+        <v>2.2203875805347179e-14</v>
       </c>
       <c r="AD3">
-        <v>1.4582247174327254e-08</v>
+        <v>3.7471936590858388e-11</v>
       </c>
       <c r="AE3">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.923477553940141e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="C4">
-        <v>4.923477553940141e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="D4">
-        <v>4.9234775539401612e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="E4">
-        <v>0.0032810315627862532</v>
+        <v>0.14950091695926798</v>
       </c>
       <c r="F4">
-        <v>4.923477553940153e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="G4">
-        <v>4.9234775539401549e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="H4">
-        <v>4.9234775539401549e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="I4">
-        <v>4.9234775539401549e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="J4">
-        <v>4.9234775539401549e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="K4">
-        <v>4.9234775539401732e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="L4">
-        <v>4.923477553940175e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="M4">
-        <v>4.923477553940175e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="N4">
-        <v>4.923477553940175e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="O4">
-        <v>4.923477553940175e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="P4">
-        <v>4.9234775539401668e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="Q4">
-        <v>0.9967189682990677</v>
+        <v>0.85049908278120945</v>
       </c>
       <c r="R4">
-        <v>4.9234775539401668e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="S4">
-        <v>4.9234775539401694e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="T4">
-        <v>4.9234775539466342e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="U4">
-        <v>4.9234775539401694e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="V4">
-        <v>4.9234775539401694e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="W4">
-        <v>4.9234775539401694e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="X4">
-        <v>4.9234775539401694e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="Y4">
-        <v>4.9234775539401694e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="Z4">
-        <v>4.9234775539401694e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="AA4">
-        <v>4.9234775539401694e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="AB4">
-        <v>4.9234775539401694e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="AC4">
-        <v>4.9234775539401612e-14</v>
+        <v>2.2202448077139777e-14</v>
       </c>
       <c r="AD4">
-        <v>1.3686644534597824e-10</v>
+        <v>2.5894542176361642e-10</v>
       </c>
       <c r="AE4">
         <v>16</v>
